--- a/Others/combined_rw_data.xlsx
+++ b/Others/combined_rw_data.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juniorjumbong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juniorjumbong/Desktop/personal-website/Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC350C3B-C9E3-E043-94D7-8953D8D3DA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65710134-F99D-FC43-AE2B-CD429D83E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="24960" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rw-levels" sheetId="1" r:id="rId1"/>
-    <sheet name="rw-diffs" sheetId="2" r:id="rId2"/>
-    <sheet name="arima-levels" sheetId="3" r:id="rId3"/>
-    <sheet name="arima-diffs" sheetId="4" r:id="rId4"/>
+    <sheet name="Regression RW" sheetId="5" r:id="rId2"/>
+    <sheet name="rw-diffs" sheetId="2" r:id="rId3"/>
+    <sheet name="arima-levels" sheetId="3" r:id="rId4"/>
+    <sheet name="arima-diffs" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>m</t>
   </si>
@@ -74,6 +75,75 @@
   </si>
   <si>
     <t>Reject H0 %</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Frequency 2</t>
+  </si>
+  <si>
+    <t>S Interval 2</t>
+  </si>
+  <si>
+    <t>Frequency 1</t>
+  </si>
+  <si>
+    <t>S Interval 1</t>
+  </si>
+  <si>
+    <t>Frequency:</t>
+  </si>
+  <si>
+    <t>S:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S: </t>
   </si>
 </sst>
 </file>
@@ -114,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,47 +227,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +594,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,18 +612,18 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -546,405 +633,404 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>74</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>0.33972999999999998</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>0.240534</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>86</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0.48177900000000001</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>0.41677799999999998</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>93</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.56167299999999998</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0.49348399999999998</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>98</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>0.67903599999999997</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0.57037599999999999</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>96</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.80029499999999998</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.58996999999999999</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>5</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1.9929399999999999</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>1.68242E-3</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>9</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>1.9727300000000001</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>6.0209399999999998E-3</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>6</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>1.9594800000000001</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>3.8768399999999999E-3</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>9</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>1.97925</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>6.2763200000000002E-3</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>1.9394800000000001</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>-9.7128800000000001E-3</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="13" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>64</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>0.69828699999999999</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>0.20649500000000001</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>73</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>0.88659900000000003</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>0.29950199999999999</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>87</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>1.0308900000000001</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0.36459900000000001</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>94</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>1.19611</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>0.447544</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>89</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>1.26888</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>0.42160399999999998</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>10</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>2.6299000000000001</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>4.6514099999999999E-3</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>16</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>2.5566499999999999</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>1.73058E-2</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>5</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>2.5999500000000002</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>9.1379700000000005E-3</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>6</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>2.5215999999999998</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>1.39963E-2</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>6</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>2.4729800000000002</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <v>8.6489400000000008E-3</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>0</v>
       </c>
     </row>
@@ -955,6 +1041,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042EE5C0-282C-AE43-88AA-EEF16CAAB363}">
+  <dimension ref="C3:K20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:11" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="16">
+        <v>13</v>
+      </c>
+      <c r="E17" s="16">
+        <v>16</v>
+      </c>
+      <c r="F17" s="16">
+        <v>12</v>
+      </c>
+      <c r="G17" s="16">
+        <v>8</v>
+      </c>
+      <c r="H17" s="16">
+        <v>14</v>
+      </c>
+      <c r="I17" s="16">
+        <v>8</v>
+      </c>
+      <c r="J17" s="16">
+        <v>7</v>
+      </c>
+      <c r="K17" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="17">
+        <v>7</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>3</v>
+      </c>
+      <c r="G19" s="17">
+        <v>4</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1011,7 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1128,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
